--- a/biology/Médecine/Indicateur_composite_des_activités_de_lutte_contre_les_infections_nosocomiales/Indicateur_composite_des_activités_de_lutte_contre_les_infections_nosocomiales.xlsx
+++ b/biology/Médecine/Indicateur_composite_des_activités_de_lutte_contre_les_infections_nosocomiales/Indicateur_composite_des_activités_de_lutte_contre_les_infections_nosocomiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indicateur_composite_des_activit%C3%A9s_de_lutte_contre_les_infections_nosocomiales</t>
+          <t>Indicateur_composite_des_activités_de_lutte_contre_les_infections_nosocomiales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Indicateur composite des activités de lutte contre les infections nosocomiales  (ICALIN), est un indicateur mis en place par le ministère de la Santé français. Sa mission est d’inciter les établissements de santé à mesurer leurs actions et leurs résultats dans le domaine de la lutte contre les infections nosocomiales.
 L’ICALIN est le premier indicateur du tableau de bord nommé score ICALIN, destiné à mesurer le taux d’activités de lutte contre les infections nosocomiales rempli par les établissements de santé. Ce score n'est donc pas un score du taux d'infections nosocomiales de chaque établissement mais une évaluation des efforts pour la lutte contre ces infections.
